--- a/Pokemon/Region/Starters.xlsx
+++ b/Pokemon/Region/Starters.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matteo.scuri\Downloads\diaryDome\Pokemon\Region\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF86C6C-F5A8-4CBC-AA8E-A6CC596BC0C7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{C885E4AF-22AC-412D-92B4-2BF9C9D3C34C}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="97">
   <si>
     <t>Valle d'Aosta</t>
   </si>
@@ -279,9 +273,6 @@
     <t>Pidgey</t>
   </si>
   <si>
-    <t>Whismur</t>
-  </si>
-  <si>
     <t>Gulpin</t>
   </si>
   <si>
@@ -294,20 +285,44 @@
     <t>Stufful</t>
   </si>
   <si>
-    <t>Patrat</t>
-  </si>
-  <si>
     <t>Geodude (Alola)</t>
   </si>
   <si>
     <t>Vulpix</t>
+  </si>
+  <si>
+    <t>Pineco</t>
+  </si>
+  <si>
+    <t>Goomy</t>
+  </si>
+  <si>
+    <t>Dragon</t>
+  </si>
+  <si>
+    <t>Tyrogue</t>
+  </si>
+  <si>
+    <t>Slugma</t>
+  </si>
+  <si>
+    <t>Pichu</t>
+  </si>
+  <si>
+    <t>Igglybuff</t>
+  </si>
+  <si>
+    <t>Stunky</t>
+  </si>
+  <si>
+    <t>Sandshrew</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,7 +360,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -451,6 +466,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF660066"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,11 +503,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -549,14 +567,21 @@
     <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF660066"/>
       <color rgb="FFFFCCFF"/>
       <color rgb="FF660033"/>
       <color rgb="FFCC99FF"/>
@@ -619,7 +644,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -671,7 +696,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -865,651 +890,679 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8449583-D076-4C35-842D-F46FB1CD7ACB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="15.6328125" customWidth="1"/>
-    <col min="4" max="4" width="4.6328125" customWidth="1"/>
-    <col min="5" max="7" width="15.6328125" customWidth="1"/>
-    <col min="8" max="8" width="4.6328125" customWidth="1"/>
-    <col min="9" max="12" width="15.6328125" customWidth="1"/>
+    <col min="1" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="4.5703125" customWidth="1"/>
+    <col min="5" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="4.5703125" customWidth="1"/>
+    <col min="9" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="E1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="I1" s="1" t="s">
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="I1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="E6" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="I6" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="E7" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C8" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="E11" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="I11" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="E14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="E16" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="I16" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="K17" s="21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="K18" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="E19" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="E21" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="I21" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="J22" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="K22" s="21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J23" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="E26" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="I26" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="I27" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="J27" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="K27" s="21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J28" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="K28" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="E29" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="E31" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="H32" s="2"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="10" t="s">
+      <c r="E33" s="9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="15" t="s">
+      <c r="F33" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="E6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="I6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="I7" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" s="22" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="E11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="I11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="22"/>
-      <c r="I12" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="J12" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="K12" s="22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="I13" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="J13" s="18" t="s">
+      <c r="C34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="K13" s="23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="E14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="4"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="E16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="I16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" s="22"/>
-      <c r="E17" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="I17" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="J17" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="K17" s="22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="E18" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="I18" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="J18" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="K18" s="20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="E19" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="E21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="I21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="22"/>
-      <c r="E22" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="I22" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="J22" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="K22" s="22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="E23" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="I23" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="J23" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="K23" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="E26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="I26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A27" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="I27" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="J27" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="K27" s="22"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A28" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="I28" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="E29" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="E31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A32" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="F32" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="G32" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A33" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H33" s="3"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A34" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="H34" s="3"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="3"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="20">

--- a/Pokemon/Region/Starters.xlsx
+++ b/Pokemon/Region/Starters.xlsx
@@ -890,7 +890,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -901,7 +901,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1566,6 +1566,18 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="I16:K16"/>
     <mergeCell ref="A31:C31"/>
     <mergeCell ref="E31:G31"/>
     <mergeCell ref="A21:C21"/>
@@ -1574,18 +1586,6 @@
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="E26:G26"/>
     <mergeCell ref="I26:K26"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="I6:K6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
